--- a/biology/Zoologie/Armariolus/Armariolus.xlsx
+++ b/biology/Zoologie/Armariolus/Armariolus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Armariolus est un genre de coléoptères de la famille des Staphylinidae et de la sous-famille des Pselaphinae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre mesurent entre 0,85 et 1,05 mm[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre mesurent entre 0,85 et 1,05 mm.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les cinq espèces connues vivent toutes à Bornéo[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cinq espèces connues vivent toutes à Bornéo.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Cinq espèces sont incluses dans le genre à sa description, en 2007[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cinq espèces sont incluses dans le genre à sa description, en 2007 :
 Armariolus aeruscator Kurbatov, Cuccodoro &amp; Löbl, 2007
 Armariolus bombax Kurbatov, Cuccodoro &amp; Löbl, 2007
 Armariolus brachiatus Kurbatov, Cuccodoro &amp; Löbl, 2007
@@ -608,9 +626,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre est décrit en 2007 par les entomologistes Sergey A. Kurbatov, Giulio Cuccodoro et Ivan Löbl. Le nom est dérivé du latin armarium, signifiant « armoire », ce mot étant utilisé dans plusieurs langues (dont le français et le russe, les langues des descripteurs) pour désigner des personnes fortes et robustes, en référence aux proportions massives de ces coléoptères. Le suffixe diminutif « -olus » réfère quant à lui à la taille très petite de ces insectes. L'espèce type est Armariolus praepilatus Kurbatov, Cuccodoro &amp; Löbl, 2007[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre est décrit en 2007 par les entomologistes Sergey A. Kurbatov, Giulio Cuccodoro et Ivan Löbl. Le nom est dérivé du latin armarium, signifiant « armoire », ce mot étant utilisé dans plusieurs langues (dont le français et le russe, les langues des descripteurs) pour désigner des personnes fortes et robustes, en référence aux proportions massives de ces coléoptères. Le suffixe diminutif « -olus » réfère quant à lui à la taille très petite de ces insectes. L'espèce type est Armariolus praepilatus Kurbatov, Cuccodoro &amp; Löbl, 2007.
 </t>
         </is>
       </c>
